--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1345483.531861354</v>
+        <v>1412971.480663288</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18102505.44564101</v>
+        <v>16612500.99216495</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287413.317324959</v>
+        <v>278692.0725916865</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6420513.544986706</v>
+        <v>6783505.44149438</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
+        <v>33.76104808841092</v>
+      </c>
+      <c r="D2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="D2" t="n">
-        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>213.7288355705588</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>349.0745662362116</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>19.34681514913088</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -865,25 +867,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>157.336205407882</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +898,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>173.5766927275538</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>321.8442031833085</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
@@ -1054,25 +1056,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>169.2540888056955</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,16 +1104,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>143.3522850658249</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1133,22 +1135,22 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>324.7616665196399</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>71.62578791176546</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1354,10 +1356,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>118.578847306846</v>
       </c>
       <c r="Y10" t="n">
-        <v>216.6449168448934</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1372,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>140.6556266629726</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314298</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800139</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="12">
@@ -1546,7 +1548,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1578,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>101.7706336613763</v>
+        <v>46.22530271040065</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1607,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773004</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H14" t="n">
-        <v>79.48069891370821</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314298</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800139</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="15">
@@ -1765,16 +1767,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>126.7641785672307</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -1825,7 +1827,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>214.5134539078235</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1844,7 +1846,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1901,7 +1903,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655125</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2014,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2090,7 +2092,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2245,7 +2247,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>47.61404849749822</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2299,13 +2301,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>195.152641037667</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2713,25 +2715,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2767,7 +2769,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>227.4728658087946</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2968,7 +2970,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3010,7 +3012,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>159.9075995904315</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3187,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>140.8432614602415</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3205,7 +3207,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3247,10 +3249,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>26.70160847752048</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3436,7 +3438,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -3475,7 +3477,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>99.2861660332424</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3487,10 +3489,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.00851315945494</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3505,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3724,10 +3726,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>26.70160847752048</v>
       </c>
       <c r="Y40" t="n">
-        <v>198.8096778684289</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800594</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3749,16 +3751,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>65.07230246447615</v>
+        <v>423.588755294884</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3806,7 +3808,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3907,7 +3909,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>71.95361350212711</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3952,10 +3954,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>193.8659438253727</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3983,13 +3985,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>405.2084358914091</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -4141,19 +4143,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>71.49788411901143</v>
       </c>
       <c r="F46" t="n">
-        <v>39.57637241135483</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4195,7 +4197,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>951.9964940415845</v>
+        <v>954.6459714054656</v>
       </c>
       <c r="C2" t="n">
-        <v>523.4148197788528</v>
+        <v>920.543902629293</v>
       </c>
       <c r="D2" t="n">
-        <v>491.5454389937014</v>
+        <v>491.9622283665614</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4331,7 +4333,7 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
         <v>687.9235674375537</v>
@@ -4355,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1613.531556264254</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W2" t="n">
-        <v>1397.64384356672</v>
+        <v>1333.751429465681</v>
       </c>
       <c r="X2" t="n">
-        <v>1382.541784186435</v>
+        <v>981.1508575099119</v>
       </c>
       <c r="Y2" t="n">
-        <v>1378.296064526492</v>
+        <v>976.9051378499694</v>
       </c>
     </row>
     <row r="3">
@@ -4407,28 +4409,28 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>480.0602407069692</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>900.1131396518725</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="O3" t="n">
-        <v>1224.671464618085</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="P3" t="n">
-        <v>1224.671464618085</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>774.5621248982375</v>
+        <v>484.7309021880288</v>
       </c>
       <c r="C4" t="n">
-        <v>774.5621248982375</v>
+        <v>484.7309021880288</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>318.8529093895514</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>318.8529093895514</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>142.1458553513076</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>142.1458553513076</v>
       </c>
       <c r="H4" t="n">
         <v>122.603617826933</v>
@@ -4486,19 +4488,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>68.4625259617433</v>
       </c>
       <c r="K4" t="n">
-        <v>341.7616130750586</v>
+        <v>343.2209805328789</v>
       </c>
       <c r="L4" t="n">
-        <v>341.7616130750586</v>
+        <v>761.43086230084</v>
       </c>
       <c r="M4" t="n">
-        <v>341.7616130750586</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O4" t="n">
         <v>1181.483761245743</v>
@@ -4513,25 +4515,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U4" t="n">
-        <v>1397.332608038895</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V4" t="n">
-        <v>1238.407148030933</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="W4" t="n">
-        <v>966.3807436172247</v>
+        <v>957.542327540508</v>
       </c>
       <c r="X4" t="n">
-        <v>966.3807436172247</v>
+        <v>712.1505728739205</v>
       </c>
       <c r="Y4" t="n">
-        <v>966.3807436172247</v>
+        <v>484.7309021880288</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1250.721030006719</v>
+        <v>1004.78047435046</v>
       </c>
       <c r="C5" t="n">
-        <v>1216.618961230546</v>
+        <v>829.4504816963654</v>
       </c>
       <c r="D5" t="n">
-        <v>788.0372869678147</v>
+        <v>797.581100911214</v>
       </c>
       <c r="E5" t="n">
-        <v>359.455612705083</v>
+        <v>767.8467601099132</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>339.9793305191209</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>339.9793305191209</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>50.84917596233721</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947721</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>485.6870740423951</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>1109.787858087176</v>
       </c>
       <c r="L5" t="n">
-        <v>267.8706684926505</v>
+        <v>1181.865694717429</v>
       </c>
       <c r="M5" t="n">
-        <v>267.8706684926505</v>
+        <v>1181.865694717429</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>1181.865694717429</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1805.966478762209</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762209</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720804</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.61932947386</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657697</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2217.900228530736</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2217.900228530736</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1855.283278464562</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1450.427823875596</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1435.325764495311</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>1431.080044835368</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174123</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070809</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326474</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947721</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>50.43238658947721</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>50.43238658947721</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>50.43238658947721</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>50.43238658947721</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>50.43238658947721</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>50.43238658947721</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>674.5331706342575</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>435.0675036533336</v>
+        <v>1039.232612525618</v>
       </c>
       <c r="C7" t="n">
-        <v>262.5057921365585</v>
+        <v>868.2688864592589</v>
       </c>
       <c r="D7" t="n">
-        <v>262.5057921365585</v>
+        <v>702.3908936607816</v>
       </c>
       <c r="E7" t="n">
-        <v>262.5057921365585</v>
+        <v>532.6328899115188</v>
       </c>
       <c r="F7" t="n">
-        <v>262.5057921365585</v>
+        <v>355.925835873275</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>190.3345608991027</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>50.43238658947721</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947721</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>137.0120717541671</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>266.2978593068864</v>
       </c>
       <c r="L7" t="n">
-        <v>761.8145120199619</v>
+        <v>684.5077410748474</v>
       </c>
       <c r="M7" t="n">
-        <v>761.8145120199619</v>
+        <v>1143.99160825576</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1586.250411413405</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2005.919660639187</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2353.426554609528</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.61932947386</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2500.201508179232</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2500.201508179232</v>
       </c>
       <c r="T7" t="n">
-        <v>1516.524240083786</v>
+        <v>2254.322061757688</v>
       </c>
       <c r="U7" t="n">
-        <v>1516.524240083786</v>
+        <v>1975.889061010793</v>
       </c>
       <c r="V7" t="n">
-        <v>1371.723952138508</v>
+        <v>1975.889061010793</v>
       </c>
       <c r="W7" t="n">
-        <v>1099.6975477248</v>
+        <v>1703.862656597084</v>
       </c>
       <c r="X7" t="n">
-        <v>854.3057930582124</v>
+        <v>1458.470901930497</v>
       </c>
       <c r="Y7" t="n">
-        <v>626.8861223723206</v>
+        <v>1231.051231244605</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1250.721030006719</v>
+        <v>1671.95961582883</v>
       </c>
       <c r="C8" t="n">
-        <v>922.6789426131436</v>
+        <v>1637.857547052657</v>
       </c>
       <c r="D8" t="n">
-        <v>890.8095618279922</v>
+        <v>1201.947762227101</v>
       </c>
       <c r="E8" t="n">
-        <v>462.2278875652606</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>34.36045797446834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>267.8706684926505</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>1107.976466382457</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>1528.02936532736</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>1528.02936532736</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1528.02936532736</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2597.711545712473</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2377.644318585511</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2118.422015902528</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2118.422015902528</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>1713.566561313561</v>
       </c>
       <c r="X8" t="n">
-        <v>1277.225916111166</v>
+        <v>1698.464501933276</v>
       </c>
       <c r="Y8" t="n">
-        <v>1272.980196451223</v>
+        <v>1694.218782273333</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L9" t="n">
-        <v>804.6185656731816</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M9" t="n">
-        <v>804.6185656731816</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N9" t="n">
-        <v>1224.671464618085</v>
+        <v>1055.800923465659</v>
       </c>
       <c r="O9" t="n">
-        <v>1224.671464618085</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="P9" t="n">
-        <v>1224.671464618085</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="Q9" t="n">
-        <v>1644.724363562988</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>428.0970671107308</v>
+        <v>867.0923738769416</v>
       </c>
       <c r="C10" t="n">
-        <v>428.0970671107308</v>
+        <v>694.5306623601665</v>
       </c>
       <c r="D10" t="n">
-        <v>428.0970671107308</v>
+        <v>528.6526695616892</v>
       </c>
       <c r="E10" t="n">
-        <v>428.0970671107308</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>761.43086230084</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>761.43086230084</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1181.483761245743</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1451.303983658873</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1451.303983658873</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1164.348475529303</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>892.3220711155946</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>646.930316449007</v>
+        <v>1286.330663281821</v>
       </c>
       <c r="Y10" t="n">
-        <v>428.0970671107308</v>
+        <v>1058.910992595929</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1526.457795636977</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1088.315322820401</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>652.405537994845</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>218.6307931531401</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>76.55440258448088</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>76.55440258448088</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>76.55440258448088</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>511.3923006645388</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>511.3923006645388</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>511.3923006645388</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M11" t="n">
-        <v>511.3923006645388</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N11" t="n">
-        <v>1320.714971542188</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>2262.917935035996</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>3091.227809869393</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3637.726595827987</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>3806.880660581044</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>3806.880660581044</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>3806.880660581044</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>3547.658357898061</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3185.041407831887</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>2780.185953242921</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2361.043489822232</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>1952.757366121885</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2012863720785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2012863720785</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K12" t="n">
-        <v>139.2626944702062</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L12" t="n">
-        <v>139.2626944702062</v>
+        <v>426.819165236992</v>
       </c>
       <c r="M12" t="n">
-        <v>1081.465657964015</v>
+        <v>426.819165236992</v>
       </c>
       <c r="N12" t="n">
-        <v>1081.465657964015</v>
+        <v>426.819165236992</v>
       </c>
       <c r="O12" t="n">
-        <v>1081.465657964015</v>
+        <v>1440.620775055294</v>
       </c>
       <c r="P12" t="n">
-        <v>1081.465657964015</v>
+        <v>1440.620775055294</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1066.535824598178</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C13" t="n">
-        <v>893.9741130814026</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D13" t="n">
-        <v>728.0961202829253</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E13" t="n">
-        <v>558.3381165336625</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>381.6310624954187</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>216.0397875212464</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H13" t="n">
-        <v>76.13761321162089</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7172983763108</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.379401819793</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2568.580781959817</v>
+        <v>2650.81040391895</v>
       </c>
       <c r="T13" t="n">
-        <v>2568.580781959817</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="U13" t="n">
-        <v>2290.147781212922</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V13" t="n">
-        <v>2003.192273083353</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W13" t="n">
-        <v>1731.165868669644</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X13" t="n">
-        <v>1485.774114003057</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y13" t="n">
-        <v>1258.354443317165</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2293.930200292117</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1855.787727475541</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1419.877942649985</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>986.1031978082801</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>558.2357682174879</v>
+        <v>793.2056155771596</v>
       </c>
       <c r="G14" t="n">
-        <v>156.8379368407518</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>76.55440258448088</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>511.3923006645388</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2262.917935035996</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2262.917935035996</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N14" t="n">
-        <v>2262.917935035996</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="O14" t="n">
-        <v>2262.917935035996</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="P14" t="n">
-        <v>3091.227809869393</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="Q14" t="n">
-        <v>3637.726595827987</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>3806.880660581044</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>3806.880660581044</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>3806.880660581044</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>3547.658357898061</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>3547.658357898061</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3547.658357898061</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3128.515894477372</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2720.229770777025</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2012863720785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>426.7596113382908</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K15" t="n">
-        <v>1107.493131408668</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L15" t="n">
-        <v>1107.493131408668</v>
+        <v>426.819165236992</v>
       </c>
       <c r="M15" t="n">
-        <v>1107.493131408668</v>
+        <v>426.819165236992</v>
       </c>
       <c r="N15" t="n">
-        <v>1107.493131408668</v>
+        <v>426.819165236992</v>
       </c>
       <c r="O15" t="n">
-        <v>1107.493131408668</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P15" t="n">
-        <v>1622.20459659609</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>764.2136293346052</v>
+        <v>845.683004334921</v>
       </c>
       <c r="C16" t="n">
-        <v>764.2136293346052</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="D16" t="n">
-        <v>598.3356365361279</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E16" t="n">
-        <v>470.2910117207434</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>470.2910117207434</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>304.699736746571</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>164.7975624369456</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7172983763108</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173577</v>
       </c>
       <c r="R16" t="n">
-        <v>2671.379401819793</v>
+        <v>2697.502628878949</v>
       </c>
       <c r="S16" t="n">
-        <v>2512.138033117789</v>
+        <v>2538.261260176946</v>
       </c>
       <c r="T16" t="n">
-        <v>2266.258586696244</v>
+        <v>2292.381813755401</v>
       </c>
       <c r="U16" t="n">
-        <v>1987.82558594935</v>
+        <v>2013.948813008506</v>
       </c>
       <c r="V16" t="n">
-        <v>1700.87007781978</v>
+        <v>1726.993304878936</v>
       </c>
       <c r="W16" t="n">
-        <v>1428.843673406072</v>
+        <v>1510.313048406387</v>
       </c>
       <c r="X16" t="n">
-        <v>1183.451918739484</v>
+        <v>1264.9212937398</v>
       </c>
       <c r="Y16" t="n">
-        <v>956.0322480535924</v>
+        <v>1037.501623053908</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
         <v>2090.757574835212</v>
@@ -5513,28 +5515,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>1431.851786213077</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5549,16 +5551,16 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5598,22 +5600,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>449.602989562749</v>
       </c>
       <c r="M18" t="n">
-        <v>1300.985674363279</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="N18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3346.878440713113</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C19" t="n">
-        <v>3174.316729196338</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D19" t="n">
-        <v>3008.438736397861</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E19" t="n">
-        <v>2838.680732648598</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F19" t="n">
-        <v>2661.973678610354</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G19" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>5094.802844496297</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>4848.923398074752</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>4570.490397327858</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>4283.534889198289</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>4011.50848478458</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>3766.116730117992</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>3538.697059432101</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
         <v>793.2056155771595</v>
@@ -5750,25 +5752,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3007.131363532228</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N20" t="n">
-        <v>4132.862346968675</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.042013538981</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q20" t="n">
         <v>5113.042013538981</v>
@@ -5826,19 +5828,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
         <v>1107.588885023173</v>
@@ -5884,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.659051657336</v>
+        <v>922.9010479080736</v>
       </c>
       <c r="C22" t="n">
-        <v>920.0973401405612</v>
+        <v>750.3393363912985</v>
       </c>
       <c r="D22" t="n">
-        <v>754.2193473420839</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="E22" t="n">
         <v>584.4613435928212</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2670.825451691258</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2424.946005269713</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2146.513004522818</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>1859.557496393248</v>
       </c>
       <c r="W22" t="n">
-        <v>1529.869425042911</v>
+        <v>1587.53109197954</v>
       </c>
       <c r="X22" t="n">
-        <v>1284.477670376323</v>
+        <v>1342.139337312952</v>
       </c>
       <c r="Y22" t="n">
-        <v>1284.477670376323</v>
+        <v>1114.719666627061</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L23" t="n">
-        <v>1371.865819681875</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M23" t="n">
-        <v>1463.16863798718</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6072,7 +6074,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>751.6989919312866</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
         <v>751.6989919312866</v>
@@ -6172,7 +6174,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
         <v>2454.80183470935</v>
@@ -6224,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C27" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D27" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E27" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F27" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G27" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="M27" t="n">
-        <v>531.6733301892817</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R27" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S27" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T27" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U27" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V27" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W27" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X27" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y27" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>838.9992856166232</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C28" t="n">
-        <v>838.9992856166232</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D28" t="n">
-        <v>673.1212928181459</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2062.611242231368</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1775.655734101798</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1503.62932968809</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1258.237575021502</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1030.81790433561</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6537,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.659051657336</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0973401405612</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W31" t="n">
-        <v>1565.470477009816</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X31" t="n">
-        <v>1320.078722343228</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>1092.659051657336</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1062.363260807472</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C34" t="n">
-        <v>920.0973401405612</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6895,13 +6897,13 @@
         <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1726.993304878938</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1481.601550212351</v>
+        <v>1427.995578770765</v>
       </c>
       <c r="Y34" t="n">
-        <v>1254.181879526459</v>
+        <v>1200.575908084873</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6928,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6935,52 +6937,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>1463.16863798718</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.16863798718</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L36" t="n">
-        <v>945.7774352703902</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M36" t="n">
-        <v>945.7774352703902</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N36" t="n">
-        <v>945.7774352703902</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O36" t="n">
-        <v>945.7774352703902</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1015.727725908489</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>843.1660143917135</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>677.2880215932362</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>507.5300178439735</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>330.8229638057297</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
         <v>190.9207894961043</v>
@@ -7123,22 +7125,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2437.972203577713</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2159.539202830818</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>1872.583694701248</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1207.546344627476</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
         <v>2090.757574835212</v>
@@ -7163,7 +7165,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,52 +7174,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1177.320806523639</v>
+        <v>1431.851786213077</v>
       </c>
       <c r="M38" t="n">
-        <v>2334.36864173419</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4440.279291740943</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7248,10 +7250,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J39" t="n">
-        <v>452.8828383974496</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K39" t="n">
         <v>1107.588885023173</v>
@@ -7321,7 +7323,7 @@
         <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
         <v>190.9207894961043</v>
@@ -7372,10 +7374,10 @@
         <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1427.995578770765</v>
       </c>
       <c r="Y40" t="n">
-        <v>1008.757289365886</v>
+        <v>1200.575908084873</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1851.09204552116</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1412.949572704583</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>977.0397878790277</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E41" t="n">
-        <v>543.2650430373228</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F41" t="n">
-        <v>477.535444588357</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>76.13761321162086</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>511.3923006645387</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1453.595264158347</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M41" t="n">
-        <v>1453.595264158347</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N41" t="n">
-        <v>1867.213757500782</v>
+        <v>3654.644638328873</v>
       </c>
       <c r="O41" t="n">
-        <v>2809.41672099459</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P41" t="n">
-        <v>3637.726595827986</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>3723.22878676488</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>3464.006484081897</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>3101.389534015723</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>2696.534079426757</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>2277.391616006068</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2277.391616006068</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>426.7596113382908</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K42" t="n">
-        <v>1107.493131408668</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1622.20459659609</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1622.20459659609</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1622.20459659609</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1622.20459659609</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1622.20459659609</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1051.169137464175</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C43" t="n">
-        <v>878.6074259473997</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D43" t="n">
-        <v>712.7294331489225</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>542.9714293996597</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>470.2910117207434</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>304.699736746571</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
-        <v>164.7975624369455</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2671.379401819793</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2512.138033117789</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2266.258586696244</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>1987.82558594935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V43" t="n">
-        <v>1987.82558594935</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W43" t="n">
-        <v>1715.799181535641</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X43" t="n">
-        <v>1470.407426869054</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y43" t="n">
-        <v>1242.987756183162</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1649.03826517876</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1210.895792362183</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>774.9860075366273</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>774.9860075366273</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>365.6845571412646</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>365.6845571412646</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>76.55440258448085</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2287.945556116525</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M44" t="n">
-        <v>2287.945556116525</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N44" t="n">
-        <v>2432.071999789052</v>
+        <v>3654.644638328873</v>
       </c>
       <c r="O44" t="n">
-        <v>2432.071999789052</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P44" t="n">
-        <v>3260.381874622449</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>3806.880660581043</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>3503.161559637919</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>3243.939256954935</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>2881.322306888762</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>2476.466852299795</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>2057.324388879106</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>1649.03826517876</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>426.7596113382908</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1878.297066801228</v>
+        <v>1083.781082102097</v>
       </c>
       <c r="C46" t="n">
-        <v>1705.735355284453</v>
+        <v>911.2193705853216</v>
       </c>
       <c r="D46" t="n">
-        <v>1539.857362485976</v>
+        <v>745.3413777868443</v>
       </c>
       <c r="E46" t="n">
-        <v>1370.099358736713</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>1330.123224987869</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>1330.123224987869</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H46" t="n">
-        <v>1190.221050678244</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>1190.221050678244</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>1276.800735842934</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>1551.559190414069</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>1969.76907218203</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>2429.252939362943</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>2871.511742520588</v>
+        <v>1783.55153211312</v>
       </c>
       <c r="O46" t="n">
-        <v>3291.180991746369</v>
+        <v>2203.220781338901</v>
       </c>
       <c r="P46" t="n">
-        <v>3638.687885716711</v>
+        <v>2550.727675309243</v>
       </c>
       <c r="Q46" t="n">
-        <v>3806.880660581043</v>
+        <v>2718.920450173576</v>
       </c>
       <c r="R46" t="n">
-        <v>3785.462839286415</v>
+        <v>2718.920450173576</v>
       </c>
       <c r="S46" t="n">
-        <v>3626.221470584412</v>
+        <v>2559.679081471572</v>
       </c>
       <c r="T46" t="n">
-        <v>3380.342024162867</v>
+        <v>2313.799635050028</v>
       </c>
       <c r="U46" t="n">
-        <v>3101.909023415972</v>
+        <v>2035.366634303133</v>
       </c>
       <c r="V46" t="n">
-        <v>2814.953515286403</v>
+        <v>1748.411126173563</v>
       </c>
       <c r="W46" t="n">
-        <v>2542.927110872694</v>
+        <v>1748.411126173563</v>
       </c>
       <c r="X46" t="n">
-        <v>2297.535356206107</v>
+        <v>1503.019371506976</v>
       </c>
       <c r="Y46" t="n">
-        <v>2070.115685520215</v>
+        <v>1275.599700821084</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7981,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -8055,31 +8057,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L3" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="M3" t="n">
+        <v>380.8256479632743</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>358.9284720888816</v>
-      </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,22 +8136,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>34.86753268700501</v>
       </c>
       <c r="K4" t="n">
-        <v>223.4729892007681</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8213,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="L5" t="n">
-        <v>236.2898988798406</v>
+        <v>72.80589558611405</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8230,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>385.0780411188011</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,16 +8376,16 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>130.5917045987064</v>
       </c>
       <c r="L7" t="n">
-        <v>370.2350542247758</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8453,25 +8455,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201044</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
-        <v>424.2958575201043</v>
+        <v>345.0097498941942</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>52.98895607821123</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8614,16 +8616,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8690,19 +8692,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>817.497647351161</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>951.720165145261</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8763,31 +8765,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>37.43576575568459</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>951.720165145261</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>209.8050995959143</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8930,22 +8932,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>926.4397398113938</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>216.346812327467</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9000,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>806.0025231116373</v>
       </c>
       <c r="P15" t="n">
-        <v>519.9105708963859</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,13 +9248,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>350.8506558504741</v>
       </c>
       <c r="M18" t="n">
         <v>1210.83316575</v>
       </c>
       <c r="N18" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9264,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -9410,16 +9412,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>135.6158905067728</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9474,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>687.6461816022032</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>92.22506899525706</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,10 +9722,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
         <v>655.9981329904112</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9960,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10583,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>257.101999686301</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10659,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>508.6956131767483</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10896,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11060,25 +11062,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>951.7201651452607</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>417.7964579216521</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>951.7201651452608</v>
+        <v>750.2469944428858</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11136,13 +11138,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K42" t="n">
         <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
-        <v>519.9105708963859</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11157,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11300,25 +11302,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>951.720165145261</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>145.5822663358858</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>750.2469944428849</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,10 +11375,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23267,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>282.9331286319117</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>55.87832135360702</v>
+        <v>111.4236523045826</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>206.7581540975077</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>41.2962451445394</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>54.79268646174791</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23902,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627212</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24133,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>110.0349065174851</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>74.15349933190436</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24412,10 +24414,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
         <v>139.5921776627258</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>48.17580493063113</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>109.3985407791399</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>29.99283294136586</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>216.2362286424012</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25324,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>144.1344859240869</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>223.1369608195779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>216.2362286424012</v>
       </c>
       <c r="Y40" t="n">
-        <v>26.33579611060392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25637,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>358.5164528304082</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25795,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>102.9863699957342</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>90.22000922290115</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25871,13 +25873,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>18.38031940347526</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>96.56253959275868</v>
       </c>
       <c r="F46" t="n">
-        <v>135.3636110865065</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>552264.9800633462</v>
+        <v>567061.0228905008</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>552264.9800633462</v>
+        <v>569725.0829440806</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>480747.2574299354</v>
+        <v>594586.817188455</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>480747.2574299354</v>
+        <v>594586.817188455</v>
       </c>
     </row>
     <row r="7">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>480747.2574299353</v>
+        <v>594586.817188455</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>480747.2574299353</v>
+        <v>594586.8171884549</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>428917.8559123268</v>
+        <v>428917.8559123269</v>
       </c>
       <c r="C2" t="n">
         <v>428917.8559123268</v>
@@ -26320,13 +26322,13 @@
         <v>428917.8559123268</v>
       </c>
       <c r="E2" t="n">
-        <v>340788.3677312201</v>
+        <v>421486.0673098819</v>
       </c>
       <c r="F2" t="n">
-        <v>340788.3677312201</v>
+        <v>421486.0673098819</v>
       </c>
       <c r="G2" t="n">
-        <v>421486.067309882</v>
+        <v>421486.0673098818</v>
       </c>
       <c r="H2" t="n">
         <v>421486.0673098819</v>
@@ -26350,10 +26352,10 @@
         <v>421486.0673098819</v>
       </c>
       <c r="O2" t="n">
-        <v>340788.3677312201</v>
+        <v>421486.0673098819</v>
       </c>
       <c r="P2" t="n">
-        <v>340788.36773122</v>
+        <v>421486.0673098818</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501666</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.5955499823</v>
       </c>
       <c r="E3" t="n">
-        <v>157477.2949221041</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89499.80860636907</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.8546387729</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726621932</v>
       </c>
       <c r="M3" t="n">
-        <v>131436.2471574195</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,28 +26420,28 @@
         <v>212093.1194372179</v>
       </c>
       <c r="C4" t="n">
-        <v>212093.1194372179</v>
+        <v>179718.6327917063</v>
       </c>
       <c r="D4" t="n">
-        <v>212093.1194372179</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
-        <v>76713.02278410411</v>
+        <v>94878.44464875288</v>
       </c>
       <c r="F4" t="n">
-        <v>76713.02278410411</v>
+        <v>94878.44464875283</v>
       </c>
       <c r="G4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875286</v>
       </c>
       <c r="H4" t="n">
         <v>94878.44464875283</v>
       </c>
       <c r="I4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875288</v>
       </c>
       <c r="J4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875291</v>
       </c>
       <c r="K4" t="n">
         <v>94878.44464875289</v>
@@ -26448,16 +26450,16 @@
         <v>94878.44464875289</v>
       </c>
       <c r="M4" t="n">
+        <v>94878.44464875283</v>
+      </c>
+      <c r="N4" t="n">
+        <v>94878.44464875285</v>
+      </c>
+      <c r="O4" t="n">
         <v>94878.44464875289</v>
       </c>
-      <c r="N4" t="n">
-        <v>94878.44464875289</v>
-      </c>
-      <c r="O4" t="n">
-        <v>76713.02278410409</v>
-      </c>
       <c r="P4" t="n">
-        <v>76713.02278410408</v>
+        <v>94878.44464875285</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26472,16 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800268</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>57864.58604083187</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>57864.58604083187</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15208.64767817659</v>
+        <v>15208.64767817671</v>
       </c>
       <c r="C6" t="n">
-        <v>157399.9483378865</v>
+        <v>110655.2414176012</v>
       </c>
       <c r="D6" t="n">
-        <v>157399.9483378865</v>
+        <v>169288.2005341438</v>
       </c>
       <c r="E6" t="n">
-        <v>48733.46398418004</v>
+        <v>66534.27483428679</v>
       </c>
       <c r="F6" t="n">
-        <v>206210.7589062841</v>
+        <v>248889.3840553366</v>
       </c>
       <c r="G6" t="n">
-        <v>159389.5754489675</v>
+        <v>248889.3840553364</v>
       </c>
       <c r="H6" t="n">
         <v>248889.3840553366</v>
@@ -26546,22 +26548,22 @@
         <v>137874.9187103462</v>
       </c>
       <c r="K6" t="n">
-        <v>248889.3840553365</v>
+        <v>195843.5294165636</v>
       </c>
       <c r="L6" t="n">
-        <v>248889.3840553365</v>
+        <v>239497.0823287146</v>
       </c>
       <c r="M6" t="n">
-        <v>117453.1368979169</v>
+        <v>96689.21311734896</v>
       </c>
       <c r="N6" t="n">
         <v>248889.3840553365</v>
       </c>
       <c r="O6" t="n">
-        <v>206210.7589062841</v>
+        <v>248889.3840553365</v>
       </c>
       <c r="P6" t="n">
-        <v>206210.7589062841</v>
+        <v>248889.3840553364</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>951.720165145261</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.720165145261</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483607</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939189</v>
       </c>
       <c r="E4" t="n">
-        <v>527.4243076251568</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.5403382394843</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483607</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939189</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251565</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483607</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939189</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251568</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.5403382394843</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27397,7 +27399,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27436,13 +27438,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.0780644725182</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>65.87647255027082</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27534,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>119.1563374173983</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>126.7497476403918</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>260.1843553608571</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>7.254829457195569</v>
-      </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>101.7445521115758</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
@@ -27774,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1.582005595911852</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,16 +27824,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>140.733667982449</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27853,22 +27855,22 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>108.999381568771</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
       </c>
-      <c r="E8" t="n">
-        <v>5.14113987318342</v>
-      </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>11.1895671662359</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>400</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28008,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>124.3589898130756</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.500557134139399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28564,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28770,7 +28772,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -34699,10 +34701,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L3" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="M3" t="n">
+        <v>380.8256479632743</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>358.9284720888816</v>
-      </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,22 +34856,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>34.86753268700501</v>
       </c>
       <c r="K4" t="n">
-        <v>223.4729892007681</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34933,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="L5" t="n">
-        <v>236.2898988798406</v>
+        <v>72.80589558611405</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34950,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>385.0780411188011</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35094,19 +35096,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>130.5917045987064</v>
       </c>
       <c r="L7" t="n">
-        <v>370.2350542247758</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35173,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201044</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
-        <v>424.2958575201043</v>
+        <v>345.0097498941942</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>52.98895607821123</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,25 +35330,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>817.497647351161</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>951.720165145261</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35433,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>37.43576575568459</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>951.720165145261</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>209.8050995959143</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>926.4397398113938</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>216.346812327467</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>806.0025231116373</v>
       </c>
       <c r="P15" t="n">
-        <v>519.9105708963859</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,13 +35819,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821516</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,13 +35968,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>350.8506558504741</v>
       </c>
       <c r="M18" t="n">
         <v>1210.83316575</v>
       </c>
       <c r="N18" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35984,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36054,13 +36056,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -36130,16 +36132,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>135.6158905067728</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36209,7 +36211,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>687.6461816022032</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>92.22506899525706</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,10 +36442,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
         <v>655.9981329904112</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>661.3192390158824</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37303,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>257.101999686301</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37379,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37400,13 +37402,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37540,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>508.6956131767483</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
         <v>170.862691669754</v>
@@ -37616,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37780,28 +37782,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>951.7201651452607</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>417.7964579216521</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>951.7201651452608</v>
+        <v>750.2469944428858</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,13 +37858,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K42" t="n">
         <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
-        <v>519.9105708963859</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,28 +38019,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>951.720165145261</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>145.5822663358858</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>750.2469944428849</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,10 +38095,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637955969</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512943</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1412971.480663288</v>
+        <v>1412446.298294256</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16612500.99216495</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916865</v>
+        <v>278692.0725916858</v>
       </c>
     </row>
     <row r="9">
@@ -664,13 +664,13 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>349.0745662362116</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>331.484581935008</v>
       </c>
     </row>
     <row r="3">
@@ -822,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>35.0560030479866</v>
       </c>
       <c r="H4" t="n">
-        <v>19.34681514913088</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -885,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>173.5766927275538</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -949,10 +949,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -961,10 +961,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>391.494235313234</v>
       </c>
     </row>
     <row r="6">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>161.9259001234201</v>
       </c>
       <c r="C7" t="n">
-        <v>169.2540888056955</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1074,7 +1074,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1113,7 +1113,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -1144,13 +1144,13 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>90.29969376364069</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>71.62578791176546</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -1198,7 +1198,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1302,7 +1302,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1311,7 +1311,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1356,7 +1356,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>118.578847306846</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1372,25 +1372,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H11" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791314298</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800139</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1429,16 +1429,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1545,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>46.22530271040065</v>
+        <v>18.05677735226156</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1609,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869773004</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791314298</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800139</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1666,16 +1666,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1767,13 +1767,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>48.38806639660998</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1827,7 +1827,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>214.5134539078235</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1903,7 +1903,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655125</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2016,10 +2016,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>50.30825486907106</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2247,7 +2247,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2256,7 +2256,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>85.55329631630661</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>47.61404849749822</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2307,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2371,7 +2371,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U23" t="n">
         <v>256.6300796561533</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
-        <v>103.8284742946034</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2727,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2967,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3189,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3252,7 +3252,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>26.70160847752048</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3444,7 +3444,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>99.2861660332424</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3489,7 +3489,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3505,7 +3505,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -3562,7 +3562,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -3663,7 +3663,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3681,7 +3681,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3717,7 +3717,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3726,10 +3726,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>26.70160847752048</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>222.6988144892033</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800594</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3751,7 +3751,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.588755294884</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>22.28534392847676</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>193.8659438253727</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3991,7 +3991,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -4143,7 +4143,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>71.49788411901143</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4152,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4197,7 +4197,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>954.6459714054656</v>
+        <v>153.4764845146214</v>
       </c>
       <c r="C2" t="n">
-        <v>920.543902629293</v>
+        <v>119.3744157384487</v>
       </c>
       <c r="D2" t="n">
-        <v>491.9622283665614</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E2" t="n">
-        <v>462.2278875652606</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4336,16 +4336,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4369,13 +4369,13 @@
         <v>1334.566480014244</v>
       </c>
       <c r="W2" t="n">
-        <v>1333.751429465681</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X2" t="n">
-        <v>981.1508575099119</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="Y2" t="n">
-        <v>976.9051378499694</v>
+        <v>175.7356509591251</v>
       </c>
     </row>
     <row r="3">
@@ -4409,28 +4409,28 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>60.00734176206595</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>480.0602407069692</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>900.1131396518725</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>1277.130531135514</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>1277.130531135514</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>1277.130531135514</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>484.7309021880288</v>
+        <v>209.2559470001092</v>
       </c>
       <c r="C4" t="n">
-        <v>484.7309021880288</v>
+        <v>209.2559470001092</v>
       </c>
       <c r="D4" t="n">
-        <v>318.8529093895514</v>
+        <v>209.2559470001092</v>
       </c>
       <c r="E4" t="n">
-        <v>318.8529093895514</v>
+        <v>209.2559470001092</v>
       </c>
       <c r="F4" t="n">
-        <v>142.1458553513076</v>
+        <v>209.2559470001092</v>
       </c>
       <c r="G4" t="n">
-        <v>142.1458553513076</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>68.4625259617433</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>343.2209805328789</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>761.43086230084</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>1181.483761245743</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.524240083786</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>1516.524240083786</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V4" t="n">
-        <v>1229.568731954216</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W4" t="n">
-        <v>957.542327540508</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="X4" t="n">
-        <v>712.1505728739205</v>
+        <v>209.2559470001092</v>
       </c>
       <c r="Y4" t="n">
-        <v>484.7309021880288</v>
+        <v>209.2559470001092</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1004.78047435046</v>
+        <v>574.4223959157541</v>
       </c>
       <c r="C5" t="n">
-        <v>829.4504816963654</v>
+        <v>540.3203271395815</v>
       </c>
       <c r="D5" t="n">
-        <v>797.581100911214</v>
+        <v>104.410542314026</v>
       </c>
       <c r="E5" t="n">
-        <v>767.8467601099132</v>
+        <v>74.67620151272527</v>
       </c>
       <c r="F5" t="n">
-        <v>339.9793305191209</v>
+        <v>50.84917596233707</v>
       </c>
       <c r="G5" t="n">
-        <v>339.9793305191209</v>
+        <v>50.84917596233707</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233721</v>
+        <v>50.84917596233707</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947721</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J5" t="n">
-        <v>485.6870740423951</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>1109.787858087176</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>1181.865694717429</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="M5" t="n">
-        <v>1181.865694717429</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="N5" t="n">
-        <v>1181.865694717429</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="O5" t="n">
-        <v>1805.966478762209</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.966478762209</v>
+        <v>1805.966478762202</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720804</v>
+        <v>2352.465264720797</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.61932947386</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.967455657697</v>
+        <v>2437.967455657691</v>
       </c>
       <c r="T5" t="n">
-        <v>2217.900228530736</v>
+        <v>2437.967455657691</v>
       </c>
       <c r="U5" t="n">
-        <v>2217.900228530736</v>
+        <v>2178.745152974708</v>
       </c>
       <c r="V5" t="n">
-        <v>1855.283278464562</v>
+        <v>1816.128202908534</v>
       </c>
       <c r="W5" t="n">
-        <v>1450.427823875596</v>
+        <v>1411.272748319567</v>
       </c>
       <c r="X5" t="n">
-        <v>1435.325764495311</v>
+        <v>992.1302848988781</v>
       </c>
       <c r="Y5" t="n">
-        <v>1431.080044835368</v>
+        <v>596.6815623602579</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.6041315807699</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>450.1476704174123</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>355.0573815639655</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>260.9369668909192</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>177.5531285070809</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326474</v>
+        <v>92.16803877326461</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947721</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I6" t="n">
-        <v>50.43238658947721</v>
+        <v>76.49605974993467</v>
       </c>
       <c r="J6" t="n">
-        <v>50.43238658947721</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>50.43238658947721</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>50.43238658947721</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>50.43238658947721</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>50.43238658947721</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>674.5331706342575</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
         <v>1055.760431341871</v>
@@ -4685,13 +4685,13 @@
         <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>959.2612476424324</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>804.3938118813123</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.9080326605331</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1039.232612525618</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="C7" t="n">
-        <v>868.2688864592589</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="D7" t="n">
-        <v>702.3908936607816</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="E7" t="n">
-        <v>532.6328899115188</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="F7" t="n">
-        <v>355.925835873275</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="G7" t="n">
-        <v>190.3345608991027</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>50.43238658947721</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947721</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J7" t="n">
-        <v>137.0120717541671</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>266.2978593068864</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>684.5077410748474</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>1143.99160825576</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.250411413405</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.919660639187</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609528</v>
+        <v>2498.899221627944</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.61932947386</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179232</v>
+        <v>2500.201508179226</v>
       </c>
       <c r="S7" t="n">
-        <v>2500.201508179232</v>
+        <v>2340.960139477222</v>
       </c>
       <c r="T7" t="n">
-        <v>2254.322061757688</v>
+        <v>2095.080693055677</v>
       </c>
       <c r="U7" t="n">
-        <v>1975.889061010793</v>
+        <v>1816.647692308783</v>
       </c>
       <c r="V7" t="n">
-        <v>1975.889061010793</v>
+        <v>1529.692184179213</v>
       </c>
       <c r="W7" t="n">
-        <v>1703.862656597084</v>
+        <v>1257.665779765505</v>
       </c>
       <c r="X7" t="n">
-        <v>1458.470901930497</v>
+        <v>1012.274025098917</v>
       </c>
       <c r="Y7" t="n">
-        <v>1231.051231244605</v>
+        <v>784.8543544130252</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1671.95961582883</v>
+        <v>1072.643441777775</v>
       </c>
       <c r="C8" t="n">
-        <v>1637.857547052657</v>
+        <v>634.5009689611984</v>
       </c>
       <c r="D8" t="n">
-        <v>1201.947762227101</v>
+        <v>198.5911841356429</v>
       </c>
       <c r="E8" t="n">
-        <v>1172.213421425801</v>
+        <v>168.8568433343421</v>
       </c>
       <c r="F8" t="n">
-        <v>744.3459918350084</v>
+        <v>145.0298177839539</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
         <v>53.81800590148855</v>
@@ -4804,19 +4804,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>53.40121652862856</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>53.40121652862856</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4831,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2597.711545712473</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2377.644318585511</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2118.422015902528</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>2118.422015902528</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="W8" t="n">
-        <v>1713.566561313561</v>
+        <v>1922.331195343315</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.464501933276</v>
+        <v>1503.188731922625</v>
       </c>
       <c r="Y8" t="n">
-        <v>1694.218782273333</v>
+        <v>1498.943012262683</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>714.2412710704069</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1055.800923465659</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>867.0923738769416</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>694.5306623601665</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>528.6526695616892</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>358.8946658124264</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>358.8946658124264</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1286.330663281821</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1058.910992595929</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
         <v>391.8077842004234</v>
@@ -5047,46 +5047,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N11" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1440.620775055294</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1440.620775055294</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
         <v>1648.327823655249</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
         <v>102.2608402707796</v>
@@ -5202,49 +5202,49 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066088</v>
       </c>
       <c r="L13" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745698</v>
       </c>
       <c r="M13" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N13" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O13" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P13" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q13" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R13" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S13" t="n">
-        <v>2650.81040391895</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T13" t="n">
-        <v>2404.930957497405</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U13" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V13" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W13" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
         <v>1654.847790009657</v>
@@ -5266,13 +5266,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771596</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5287,40 +5287,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>3603.973621145286</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>4729.704604581732</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>4729.704604581732</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>4729.704604581732</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
         <v>2955.199618136697</v>
@@ -5354,31 +5354,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1224.761663117513</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
         <v>1765.500601749588</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>845.683004334921</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C16" t="n">
-        <v>673.1212928181459</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>673.1212928181459</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
         <v>673.1212928181459</v>
@@ -5457,31 +5457,31 @@
         <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.920450173577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878949</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176946</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755401</v>
+        <v>2510.802246727525</v>
       </c>
       <c r="U16" t="n">
-        <v>2013.948813008506</v>
+        <v>2232.36924598063</v>
       </c>
       <c r="V16" t="n">
-        <v>1726.993304878936</v>
+        <v>1945.413737851061</v>
       </c>
       <c r="W16" t="n">
-        <v>1510.313048406387</v>
+        <v>1673.387333437352</v>
       </c>
       <c r="X16" t="n">
-        <v>1264.9212937398</v>
+        <v>1427.995578770765</v>
       </c>
       <c r="Y16" t="n">
-        <v>1037.501623053908</v>
+        <v>1200.575908084873</v>
       </c>
     </row>
     <row r="17">
@@ -5503,52 +5503,52 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2334.36864173419</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N17" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
         <v>4187.483659846699</v>
@@ -5560,7 +5560,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5591,16 +5591,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L18" t="n">
-        <v>449.602989562749</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="M18" t="n">
         <v>1648.327823655249</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>1003.573296407379</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769883</v>
+        <v>831.0115848906036</v>
       </c>
       <c r="D19" t="n">
-        <v>451.897152078511</v>
+        <v>665.1335920921263</v>
       </c>
       <c r="E19" t="n">
-        <v>282.1391483292483</v>
+        <v>495.3755883428635</v>
       </c>
       <c r="F19" t="n">
-        <v>105.4320942910045</v>
+        <v>318.6685343046197</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>153.0772593304474</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5761,19 +5761,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5834,22 +5834,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>922.9010479080736</v>
+        <v>1039.174348374283</v>
       </c>
       <c r="C22" t="n">
-        <v>750.3393363912985</v>
+        <v>866.6126368575082</v>
       </c>
       <c r="D22" t="n">
-        <v>584.4613435928212</v>
+        <v>700.7346440590309</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>530.9766403097681</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>354.2695862715243</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>188.678311297352</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5937,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2670.825451691258</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2424.946005269713</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2146.513004522818</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1859.557496393248</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1587.53109197954</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1342.139337312952</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1114.719666627061</v>
+        <v>1230.99296709327</v>
       </c>
     </row>
     <row r="23">
@@ -5977,46 +5977,46 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>605.8694973157614</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>1680.929463568621</v>
       </c>
       <c r="M23" t="n">
-        <v>3168.718933692368</v>
+        <v>2837.977298779172</v>
       </c>
       <c r="N23" t="n">
-        <v>4294.449917128814</v>
+        <v>3963.708282215619</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T23" t="n">
         <v>4809.322912595856</v>
@@ -6028,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>751.6989919312866</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>751.6989919312866</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6174,7 +6174,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
         <v>2454.80183470935</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>3800.424250186843</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L27" t="n">
-        <v>3800.424250186843</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="M27" t="n">
-        <v>3800.424250186843</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="N27" t="n">
-        <v>3800.424250186843</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O27" t="n">
-        <v>3800.424250186843</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P27" t="n">
-        <v>4455.130296812566</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q27" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6472,7 +6472,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6545,19 +6545,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6648,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436403</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>1602.717526820355</v>
       </c>
       <c r="Q33" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1008.757289365886</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1427.995578770765</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1200.575908084873</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436403</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
         <v>2588.899621423628</v>
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>1133.616358467827</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L36" t="n">
-        <v>1133.616358467827</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="M36" t="n">
-        <v>1133.616358467827</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="N36" t="n">
-        <v>1133.616358467827</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="O36" t="n">
-        <v>1133.616358467827</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="P36" t="n">
-        <v>1133.616358467827</v>
+        <v>1602.717526820355</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2437.972203577713</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U37" t="n">
-        <v>2159.539202830818</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V37" t="n">
-        <v>1872.583694701248</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W37" t="n">
-        <v>1600.55729028754</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
         <v>2090.757574835212</v>
@@ -7174,28 +7174,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>269.4112304877946</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>1103.761522445973</v>
       </c>
       <c r="L38" t="n">
-        <v>1431.851786213077</v>
+        <v>2178.821488698832</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423628</v>
+        <v>2178.821488698832</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>3304.552472135279</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>4284.732138705585</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
@@ -7210,16 +7210,16 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2970399865835</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J39" t="n">
-        <v>426.8553649527958</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>1602.717526820355</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1008.757289365886</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>2026.844126920461</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1754.817722506753</v>
       </c>
       <c r="X40" t="n">
-        <v>1427.995578770765</v>
+        <v>1509.425967840165</v>
       </c>
       <c r="Y40" t="n">
-        <v>1200.575908084873</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="41">
@@ -7393,70 +7393,70 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L41" t="n">
-        <v>1371.865819681875</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M41" t="n">
-        <v>2528.913654892426</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N41" t="n">
-        <v>3654.644638328873</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O41" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J42" t="n">
-        <v>426.8553649527958</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K42" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L42" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="P42" t="n">
-        <v>1107.588885023173</v>
+        <v>1602.717526820355</v>
       </c>
       <c r="Q42" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R42" t="n">
         <v>1765.500601749588</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1181.319000882661</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C43" t="n">
-        <v>1008.757289365886</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D43" t="n">
-        <v>842.8792965674086</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7593,28 +7593,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T43" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U43" t="n">
-        <v>2313.799635050031</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V43" t="n">
-        <v>2117.975449367836</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W43" t="n">
-        <v>1845.949044954127</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X43" t="n">
-        <v>1600.55729028754</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y43" t="n">
-        <v>1373.137619601648</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>1371.865819681875</v>
+        <v>228.524776110223</v>
       </c>
       <c r="L44" t="n">
-        <v>1371.865819681875</v>
+        <v>1303.584742363082</v>
       </c>
       <c r="M44" t="n">
-        <v>2528.913654892426</v>
+        <v>2460.632577573633</v>
       </c>
       <c r="N44" t="n">
-        <v>3654.644638328873</v>
+        <v>3586.36356101008</v>
       </c>
       <c r="O44" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J45" t="n">
-        <v>426.8553649527958</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K45" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L45" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="N45" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="P45" t="n">
-        <v>1107.588885023173</v>
+        <v>1602.717526820355</v>
       </c>
       <c r="Q45" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R45" t="n">
         <v>1765.500601749588</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1083.781082102097</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>911.2193705853216</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>745.3413777868443</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7818,40 +7818,40 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1783.55153211312</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2203.220781338901</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2550.727675309243</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2718.920450173576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2718.920450173576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2559.679081471572</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2313.799635050028</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2035.366634303133</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.411126173563</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1748.411126173563</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1503.019371506976</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1275.599700821084</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7984,19 +7984,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8057,31 +8057,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>380.8256479632743</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>34.86753268700501</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,10 +8218,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684651</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L5" t="n">
-        <v>72.80589558611405</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,10 +8230,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>630.4048323684651</v>
+        <v>72.80589558611109</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741913</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>630.4048323684651</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>385.0780411188011</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8376,7 +8376,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>130.5917045987064</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>22.94960388475693</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>345.0097498941942</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8695,13 +8695,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
@@ -8783,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>209.8050995959143</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8935,19 +8935,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>216.346812327467</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>806.0025231116373</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,19 +9239,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
-        <v>350.8506558504741</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9409,13 +9409,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>135.6158905067728</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9424,7 +9424,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,10 +9482,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>69.04441372935742</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -9652,7 +9652,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9725,22 +9725,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,10 +9956,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10120,10 +10120,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10193,22 +10193,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10357,22 +10357,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>164.4273484133669</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>257.101999686301</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>687.6096162327044</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>519.9105708963857</v>
+        <v>164.4273484133669</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>168.8387779969848</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10843,10 +10843,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.03656536949883105</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>687.6096162327044</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>164.4273484133669</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -11074,16 +11074,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>750.2469944428858</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>301.546314668241</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>687.6096162327044</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>164.4273484133669</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>127.5393291307509</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -11311,7 +11311,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>750.2469944428849</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>301.546314668241</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>687.6096162327044</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>164.4273484133669</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>111.4236523045826</v>
+        <v>139.5921776627218</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>195.0325855607193</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>54.79268646174791</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23904,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>88.19489769745817</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>52.94985625022261</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24177,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>110.0349065174851</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -24414,10 +24414,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>216.2362286424012</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>144.1344859240869</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>216.2362286424012</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>2.446659489829472</v>
       </c>
     </row>
     <row r="41">
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>141.6500182959539</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>90.22000922290115</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>96.56253959275868</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>567061.0228905008</v>
+        <v>567061.0228905007</v>
       </c>
     </row>
     <row r="4">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>594586.817188455</v>
+        <v>594586.8171884549</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>594586.8171884549</v>
+        <v>594586.817188455</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>428917.8559123269</v>
+        <v>428917.8559123268</v>
       </c>
       <c r="C2" t="n">
         <v>428917.8559123268</v>
@@ -26322,19 +26322,19 @@
         <v>428917.8559123268</v>
       </c>
       <c r="E2" t="n">
-        <v>421486.0673098819</v>
+        <v>421486.067309882</v>
       </c>
       <c r="F2" t="n">
         <v>421486.0673098819</v>
       </c>
       <c r="G2" t="n">
+        <v>421486.0673098819</v>
+      </c>
+      <c r="H2" t="n">
         <v>421486.0673098818</v>
       </c>
-      <c r="H2" t="n">
-        <v>421486.0673098819</v>
-      </c>
       <c r="I2" t="n">
-        <v>421486.0673098819</v>
+        <v>421486.0673098818</v>
       </c>
       <c r="J2" t="n">
         <v>421486.0673098819</v>
@@ -26346,7 +26346,7 @@
         <v>421486.0673098819</v>
       </c>
       <c r="M2" t="n">
-        <v>421486.0673098819</v>
+        <v>421486.067309882</v>
       </c>
       <c r="N2" t="n">
         <v>421486.0673098819</v>
@@ -26355,7 +26355,7 @@
         <v>421486.0673098819</v>
       </c>
       <c r="P2" t="n">
-        <v>421486.0673098818</v>
+        <v>421486.0673098819</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501666</v>
+        <v>66587.76789501614</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.5955499823</v>
+        <v>11527.59554998281</v>
       </c>
       <c r="E3" t="n">
-        <v>182355.1092210497</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.8546387729</v>
+        <v>53045.85463877243</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726621932</v>
+        <v>9392.3017266224</v>
       </c>
       <c r="M3" t="n">
-        <v>152200.1709379876</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,28 +26420,28 @@
         <v>212093.1194372179</v>
       </c>
       <c r="C4" t="n">
-        <v>179718.6327917063</v>
+        <v>179718.6327917066</v>
       </c>
       <c r="D4" t="n">
         <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875291</v>
       </c>
       <c r="F4" t="n">
-        <v>94878.44464875283</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="G4" t="n">
+        <v>94878.44464875289</v>
+      </c>
+      <c r="H4" t="n">
+        <v>94878.44464875285</v>
+      </c>
+      <c r="I4" t="n">
         <v>94878.44464875286</v>
       </c>
-      <c r="H4" t="n">
-        <v>94878.44464875283</v>
-      </c>
-      <c r="I4" t="n">
-        <v>94878.44464875288</v>
-      </c>
       <c r="J4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="K4" t="n">
         <v>94878.44464875289</v>
@@ -26450,10 +26450,10 @@
         <v>94878.44464875289</v>
       </c>
       <c r="M4" t="n">
-        <v>94878.44464875283</v>
+        <v>94878.44464875291</v>
       </c>
       <c r="N4" t="n">
-        <v>94878.44464875285</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="O4" t="n">
         <v>94878.44464875289</v>
@@ -26472,13 +26472,13 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800268</v>
+        <v>71956.21380800258</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
@@ -26496,7 +26496,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="L5" t="n">
         <v>77718.23860579252</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15208.64767817671</v>
+        <v>15208.64767817659</v>
       </c>
       <c r="C6" t="n">
-        <v>110655.2414176012</v>
+        <v>110655.2414176015</v>
       </c>
       <c r="D6" t="n">
-        <v>169288.2005341438</v>
+        <v>169288.2005341432</v>
       </c>
       <c r="E6" t="n">
-        <v>66534.27483428679</v>
+        <v>66511.05049490419</v>
       </c>
       <c r="F6" t="n">
-        <v>248889.3840553366</v>
+        <v>248866.1597159538</v>
       </c>
       <c r="G6" t="n">
-        <v>248889.3840553364</v>
+        <v>248866.1597159538</v>
       </c>
       <c r="H6" t="n">
-        <v>248889.3840553366</v>
+        <v>248866.1597159538</v>
       </c>
       <c r="I6" t="n">
-        <v>248889.3840553365</v>
+        <v>248866.1597159538</v>
       </c>
       <c r="J6" t="n">
-        <v>137874.9187103462</v>
+        <v>137851.6943709636</v>
       </c>
       <c r="K6" t="n">
-        <v>195843.5294165636</v>
+        <v>195820.3050771814</v>
       </c>
       <c r="L6" t="n">
-        <v>239497.0823287146</v>
+        <v>239473.8579893314</v>
       </c>
       <c r="M6" t="n">
-        <v>96689.21311734896</v>
+        <v>96665.98877796621</v>
       </c>
       <c r="N6" t="n">
-        <v>248889.3840553365</v>
+        <v>248866.1597159538</v>
       </c>
       <c r="O6" t="n">
-        <v>248889.3840553365</v>
+        <v>248866.1597159538</v>
       </c>
       <c r="P6" t="n">
-        <v>248889.3840553364</v>
+        <v>248866.1597159539</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684651</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -27014,13 +27014,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483607</v>
+        <v>206.1089748483591</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939189</v>
+        <v>37.11037423939351</v>
       </c>
       <c r="E4" t="n">
-        <v>610.7452967768882</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483607</v>
+        <v>206.1089748483589</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939189</v>
+        <v>37.11037423939374</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768882</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483607</v>
+        <v>206.1089748483591</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939189</v>
+        <v>37.11037423939351</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768882</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,13 +27384,13 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27399,7 +27399,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>65.87647255027082</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>72.71868052833509</v>
       </c>
     </row>
     <row r="3">
@@ -27542,22 +27542,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>128.879359176444</v>
       </c>
       <c r="H4" t="n">
-        <v>119.1563374173983</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>260.1843553608571</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>12.70902715010908</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>27.97453240837714</v>
       </c>
       <c r="C7" t="n">
-        <v>1.582005595911852</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>307.0841592993281</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>11.1895671662359</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>124.3589898130756</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-7.742005345385692e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28274,7 +28274,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29091,7 +29091,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>-8.810729923425242e-13</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -30711,7 +30711,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>-7.742005345385692e-13</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -34704,19 +34704,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34777,31 +34777,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>380.8256479632743</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>34.86753268700501</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,10 +34938,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684651</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L5" t="n">
-        <v>72.80589558611405</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>630.4048323684651</v>
+        <v>72.80589558611109</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741913</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>630.4048323684651</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>385.0780411188011</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094343</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
-        <v>130.5917045987064</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>22.94960388475693</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>345.0097498941942</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35415,13 +35415,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
@@ -35503,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>209.8050995959143</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924961003</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35655,19 +35655,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>216.346812327467</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
         <v>170.862691669754</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>806.0025231116373</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35825,7 +35825,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821516</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
-        <v>350.8506558504741</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -36129,13 +36129,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>135.6158905067728</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36144,7 +36144,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,10 +36202,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36357,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>69.04441372935742</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36369,10 +36369,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36691,10 +36691,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132072</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36840,10 +36840,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>828.0031984638367</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>164.4273484133669</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>257.101999686301</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>687.6096162327044</v>
@@ -37402,13 +37402,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638367</v>
       </c>
       <c r="Q36" t="n">
-        <v>519.9105708963857</v>
+        <v>164.4273484133669</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>168.8387779969848</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37563,10 +37563,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.03656536949883105</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>687.6096162327044</v>
@@ -37639,13 +37639,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>828.0031984638367</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>164.4273484133669</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O41" t="n">
-        <v>750.2469944428858</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>301.546314668241</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>687.6096162327044</v>
@@ -37876,13 +37876,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>828.0031984638367</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>164.4273484133669</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850282</v>
+        <v>127.5393291307509</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -38031,7 +38031,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>750.2469944428849</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>301.546314668241</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>687.6096162327044</v>
@@ -38113,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>828.0031984638367</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>164.4273484133669</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38186,7 +38186,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637955969</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512943</v>
